--- a/BackTest/2019-10-19 BackTest PLY.xlsx
+++ b/BackTest/2019-10-19 BackTest PLY.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>4.734</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>4.734</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20</v>
+      </c>
       <c r="L14" t="n">
         <v>4.733000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>4.732</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>4.731999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>4.731</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.06999999999999851</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>4.731999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>4.731</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>4.730999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>4.730999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>4.730999999999999</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>4.730999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>4.730999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.08999999999999808</v>
       </c>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>4.731999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.09999999999999787</v>
       </c>
       <c r="K29" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>4.731999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>0.1099999999999977</v>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>4.733</v>
@@ -1860,7 +1882,7 @@
         <v>0.1299999999999972</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>4.734</v>
@@ -2064,7 +2086,7 @@
         <v>0.139999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L36" t="n">
         <v>4.734</v>
@@ -2115,7 +2137,7 @@
         <v>0.139999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L37" t="n">
         <v>4.733000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>0.1499999999999968</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>4.733000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L39" t="n">
         <v>4.733</v>
@@ -2268,7 +2290,7 @@
         <v>0.1699999999999964</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>4.733</v>
@@ -2319,7 +2341,7 @@
         <v>0.1699999999999964</v>
       </c>
       <c r="K41" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>4.734</v>
@@ -2370,7 +2392,7 @@
         <v>0.1699999999999964</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>4.734</v>
@@ -2421,7 +2443,7 @@
         <v>0.1699999999999964</v>
       </c>
       <c r="K43" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>4.735000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>0.1799999999999962</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>4.735000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>0.1799999999999962</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>4.734000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>0.1899999999999959</v>
       </c>
       <c r="K49" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>4.735000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>0.1999999999999957</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>4.734000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>0.2099999999999955</v>
       </c>
       <c r="K51" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>4.734000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>0.2099999999999955</v>
       </c>
       <c r="K53" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>4.734000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>0.2099999999999955</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>4.735000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>0.2399999999999949</v>
       </c>
       <c r="K60" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>4.735000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>0.2399999999999949</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>4.734000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>0.2599999999999945</v>
       </c>
       <c r="K63" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L63" t="n">
         <v>4.733000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>0.2599999999999945</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>4.731999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>0.2599999999999945</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>4.730999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>0.2599999999999945</v>
       </c>
       <c r="K71" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L71" t="n">
         <v>4.730999999999999</v>
@@ -3899,9 +3921,7 @@
       <c r="J72" t="n">
         <v>0.2599999999999945</v>
       </c>
-      <c r="K72" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>4.729999999999999</v>
       </c>
@@ -3950,9 +3970,7 @@
       <c r="J73" t="n">
         <v>0.2599999999999945</v>
       </c>
-      <c r="K73" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>4.729999999999999</v>
       </c>
@@ -4001,9 +4019,7 @@
       <c r="J74" t="n">
         <v>0.2599999999999945</v>
       </c>
-      <c r="K74" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>4.729999999999999</v>
       </c>
@@ -4052,9 +4068,7 @@
       <c r="J75" t="n">
         <v>0.2599999999999945</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>4.729999999999999</v>
       </c>
@@ -4103,9 +4117,7 @@
       <c r="J76" t="n">
         <v>0.2599999999999945</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>4.729999999999999</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>0.2699999999999942</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>4.730999999999999</v>
@@ -4206,7 +4218,7 @@
         <v>0.279999999999994</v>
       </c>
       <c r="K78" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>4.730999999999999</v>
@@ -4257,7 +4269,7 @@
         <v>0.2899999999999947</v>
       </c>
       <c r="K79" t="n">
-        <v>-20.00000000000142</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L79" t="n">
         <v>4.729999999999999</v>
@@ -4308,7 +4320,7 @@
         <v>0.2999999999999945</v>
       </c>
       <c r="K80" t="n">
-        <v>-33.33333333333432</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L80" t="n">
         <v>4.727999999999999</v>
@@ -4359,7 +4371,7 @@
         <v>0.3099999999999943</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571537</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L81" t="n">
         <v>4.726999999999999</v>
@@ -4410,7 +4422,7 @@
         <v>0.3099999999999943</v>
       </c>
       <c r="K82" t="n">
-        <v>-33.33333333333432</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L82" t="n">
         <v>4.725999999999997</v>
@@ -4614,7 +4626,7 @@
         <v>0.3299999999999947</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571392</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>4.73</v>
@@ -4665,7 +4677,7 @@
         <v>0.3299999999999947</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571392</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L87" t="n">
         <v>4.73</v>
@@ -4716,7 +4728,7 @@
         <v>0.3299999999999947</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571392</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L88" t="n">
         <v>4.731</v>
@@ -4767,7 +4779,7 @@
         <v>0.3299999999999947</v>
       </c>
       <c r="K89" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
         <v>4.733000000000001</v>
@@ -4818,7 +4830,7 @@
         <v>0.3299999999999947</v>
       </c>
       <c r="K90" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>4.736000000000001</v>
@@ -4869,7 +4881,7 @@
         <v>0.3299999999999947</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
         <v>4.738000000000001</v>
@@ -4919,9 +4931,7 @@
       <c r="J92" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K92" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -4970,9 +4980,7 @@
       <c r="J93" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K93" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5021,9 +5029,7 @@
       <c r="J94" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K94" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5072,9 +5078,7 @@
       <c r="J95" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K95" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5123,9 +5127,7 @@
       <c r="J96" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K96" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5174,9 +5176,7 @@
       <c r="J97" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5225,9 +5225,7 @@
       <c r="J98" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K98" t="n">
-        <v>19.99999999999929</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5276,9 +5274,7 @@
       <c r="J99" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K99" t="n">
-        <v>50.00000000000111</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5327,9 +5323,7 @@
       <c r="J100" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K100" t="n">
-        <v>100</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5378,9 +5372,7 @@
       <c r="J101" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K101" t="n">
-        <v>100</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -5429,9 +5421,7 @@
       <c r="J102" t="n">
         <v>0.3299999999999947</v>
       </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>4.740000000000001</v>
       </c>
@@ -8047,7 +8037,7 @@
         <v>0.3999999999999968</v>
       </c>
       <c r="K155" t="n">
-        <v>-14.28571428571356</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>4.728</v>
@@ -8098,7 +8088,7 @@
         <v>0.3999999999999968</v>
       </c>
       <c r="K156" t="n">
-        <v>-14.28571428571356</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>4.727999999999999</v>
@@ -8149,7 +8139,7 @@
         <v>0.4099999999999975</v>
       </c>
       <c r="K157" t="n">
-        <v>-24.99999999999972</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L157" t="n">
         <v>4.726999999999999</v>
@@ -8200,7 +8190,7 @@
         <v>0.4099999999999975</v>
       </c>
       <c r="K158" t="n">
-        <v>-24.99999999999972</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L158" t="n">
         <v>4.724999999999998</v>
@@ -8251,7 +8241,7 @@
         <v>0.4299999999999971</v>
       </c>
       <c r="K159" t="n">
-        <v>-39.99999999999911</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L159" t="n">
         <v>4.720999999999998</v>
@@ -8302,7 +8292,7 @@
         <v>0.4399999999999968</v>
       </c>
       <c r="K160" t="n">
-        <v>-27.27272727272697</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>4.719999999999998</v>
@@ -8353,7 +8343,7 @@
         <v>0.4499999999999966</v>
       </c>
       <c r="K161" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>4.718999999999999</v>
@@ -8404,7 +8394,7 @@
         <v>0.4499999999999966</v>
       </c>
       <c r="K162" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>4.718999999999999</v>
@@ -8455,7 +8445,7 @@
         <v>0.4499999999999966</v>
       </c>
       <c r="K163" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>4.718999999999999</v>
@@ -8506,7 +8496,7 @@
         <v>0.4499999999999966</v>
       </c>
       <c r="K164" t="n">
-        <v>-16.66666666666679</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L164" t="n">
         <v>4.718999999999999</v>
@@ -8557,7 +8547,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K165" t="n">
-        <v>-7.692307692307376</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>4.718999999999999</v>
@@ -8608,7 +8598,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L166" t="n">
         <v>4.718999999999999</v>
@@ -8659,7 +8649,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L167" t="n">
         <v>4.719999999999999</v>
@@ -8710,7 +8700,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K168" t="n">
-        <v>-9.090909090908649</v>
+        <v>100</v>
       </c>
       <c r="L168" t="n">
         <v>4.720999999999999</v>
@@ -8761,7 +8751,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.090909090908649</v>
+        <v>100</v>
       </c>
       <c r="L169" t="n">
         <v>4.723999999999999</v>
@@ -8812,7 +8802,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K170" t="n">
-        <v>11.11111111111155</v>
+        <v>100</v>
       </c>
       <c r="L170" t="n">
         <v>4.726</v>
@@ -8863,7 +8853,7 @@
         <v>0.4599999999999973</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L171" t="n">
         <v>4.726999999999999</v>
@@ -9016,7 +9006,7 @@
         <v>0.469999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>4.726999999999999</v>
@@ -9067,7 +9057,7 @@
         <v>0.469999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.28571428571501</v>
+        <v>-100</v>
       </c>
       <c r="L175" t="n">
         <v>4.725999999999999</v>
@@ -9118,7 +9108,7 @@
         <v>0.469999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>-14.28571428571501</v>
+        <v>-100</v>
       </c>
       <c r="L176" t="n">
         <v>4.724999999999999</v>
@@ -9169,7 +9159,7 @@
         <v>0.4799999999999986</v>
       </c>
       <c r="K177" t="n">
-        <v>14.28571428571501</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>4.724999999999999</v>
@@ -9220,7 +9210,7 @@
         <v>0.4899999999999993</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>4.723999999999998</v>
@@ -9271,7 +9261,7 @@
         <v>0.4899999999999993</v>
       </c>
       <c r="K179" t="n">
-        <v>33.33333333333136</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>4.722999999999997</v>
@@ -9322,7 +9312,7 @@
         <v>0.5</v>
       </c>
       <c r="K180" t="n">
-        <v>33.33333333333235</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>4.722999999999997</v>
@@ -9373,7 +9363,7 @@
         <v>0.5</v>
       </c>
       <c r="K181" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>4.722999999999997</v>
@@ -9526,7 +9516,7 @@
         <v>0.5300000000000011</v>
       </c>
       <c r="K184" t="n">
-        <v>24.99999999999917</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L184" t="n">
         <v>4.724999999999998</v>
@@ -9577,7 +9567,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K185" t="n">
-        <v>-11.11111111111133</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>4.724999999999998</v>
@@ -9628,7 +9618,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.11111111111133</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L186" t="n">
         <v>4.724999999999998</v>
@@ -9679,7 +9669,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.11111111111133</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>4.723999999999998</v>
@@ -9730,7 +9720,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K188" t="n">
-        <v>-11.11111111111133</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>4.723999999999998</v>
@@ -9883,7 +9873,7 @@
         <v>0.5600000000000023</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L191" t="n">
         <v>4.724999999999999</v>
@@ -9985,7 +9975,7 @@
         <v>0.5800000000000027</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.090909090908504</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L193" t="n">
         <v>4.723999999999998</v>
@@ -10036,7 +10026,7 @@
         <v>0.6000000000000032</v>
       </c>
       <c r="K194" t="n">
-        <v>7.692307692307902</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L194" t="n">
         <v>4.722999999999998</v>
@@ -10087,7 +10077,7 @@
         <v>0.6200000000000028</v>
       </c>
       <c r="K195" t="n">
-        <v>19.99999999999953</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L195" t="n">
         <v>4.725999999999998</v>
@@ -10189,7 +10179,7 @@
         <v>0.6700000000000035</v>
       </c>
       <c r="K197" t="n">
-        <v>5.263157894736596</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L197" t="n">
         <v>4.727999999999999</v>
@@ -10240,7 +10230,7 @@
         <v>0.6800000000000033</v>
       </c>
       <c r="K198" t="n">
-        <v>5.263157894737089</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>4.728999999999999</v>
@@ -10291,7 +10281,7 @@
         <v>0.6800000000000033</v>
       </c>
       <c r="K199" t="n">
-        <v>5.263157894737089</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>4.728999999999999</v>
@@ -10393,7 +10383,7 @@
         <v>0.6900000000000031</v>
       </c>
       <c r="K201" t="n">
-        <v>5.263157894736645</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L201" t="n">
         <v>4.73</v>
@@ -10444,7 +10434,7 @@
         <v>0.6900000000000031</v>
       </c>
       <c r="K202" t="n">
-        <v>11.11111111111122</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L202" t="n">
         <v>4.732</v>
@@ -10495,7 +10485,7 @@
         <v>0.6900000000000031</v>
       </c>
       <c r="K203" t="n">
-        <v>11.11111111111122</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L203" t="n">
         <v>4.735</v>
@@ -10546,7 +10536,7 @@
         <v>0.7000000000000028</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.882352941176286</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L204" t="n">
         <v>4.734999999999999</v>
@@ -10597,7 +10587,7 @@
         <v>0.7000000000000028</v>
       </c>
       <c r="K205" t="n">
-        <v>6.666666666667062</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L205" t="n">
         <v>4.733</v>
@@ -10648,7 +10638,7 @@
         <v>0.7100000000000026</v>
       </c>
       <c r="K206" t="n">
-        <v>12.50000000000021</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>4.735</v>
@@ -10699,7 +10689,7 @@
         <v>0.7100000000000026</v>
       </c>
       <c r="K207" t="n">
-        <v>12.50000000000021</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>4.735</v>
@@ -10750,7 +10740,7 @@
         <v>0.7200000000000024</v>
       </c>
       <c r="K208" t="n">
-        <v>17.64705882352947</v>
+        <v>50</v>
       </c>
       <c r="L208" t="n">
         <v>4.737</v>
@@ -10801,7 +10791,7 @@
         <v>0.7200000000000024</v>
       </c>
       <c r="K209" t="n">
-        <v>12.49999999999972</v>
+        <v>50</v>
       </c>
       <c r="L209" t="n">
         <v>4.739</v>
@@ -10852,7 +10842,7 @@
         <v>0.7300000000000022</v>
       </c>
       <c r="K210" t="n">
-        <v>5.882352941176348</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>4.74</v>
@@ -10903,7 +10893,7 @@
         <v>0.740000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>11.11111111111089</v>
+        <v>20</v>
       </c>
       <c r="L211" t="n">
         <v>4.741000000000001</v>
@@ -10954,7 +10944,7 @@
         <v>0.7900000000000018</v>
       </c>
       <c r="K212" t="n">
-        <v>-9.090909090908944</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L212" t="n">
         <v>4.737</v>
@@ -11005,7 +10995,7 @@
         <v>0.8000000000000016</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L213" t="n">
         <v>4.734</v>
@@ -11056,7 +11046,7 @@
         <v>0.8000000000000016</v>
       </c>
       <c r="K214" t="n">
-        <v>-10.00000000000031</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L214" t="n">
         <v>4.732000000000001</v>
@@ -11107,7 +11097,7 @@
         <v>0.8100000000000014</v>
       </c>
       <c r="K215" t="n">
-        <v>-15.78947368421077</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L215" t="n">
         <v>4.731</v>
@@ -11158,7 +11148,7 @@
         <v>0.8100000000000014</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L216" t="n">
         <v>4.729</v>
@@ -11209,7 +11199,7 @@
         <v>0.8200000000000012</v>
       </c>
       <c r="K217" t="n">
-        <v>-20.00000000000047</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L217" t="n">
         <v>4.726</v>
@@ -11260,7 +11250,7 @@
         <v>0.8200000000000012</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.28571428571483</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L218" t="n">
         <v>4.722</v>
@@ -11311,7 +11301,7 @@
         <v>0.8400000000000016</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L219" t="n">
         <v>4.720000000000001</v>
@@ -11362,7 +11352,7 @@
         <v>0.8400000000000016</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L220" t="n">
         <v>4.719</v>
@@ -11413,7 +11403,7 @@
         <v>0.8500000000000014</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L221" t="n">
         <v>4.718000000000001</v>
@@ -11464,7 +11454,7 @@
         <v>0.8500000000000014</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L222" t="n">
         <v>4.722</v>
@@ -11515,7 +11505,7 @@
         <v>0.8600000000000012</v>
       </c>
       <c r="K223" t="n">
-        <v>5.88235294117641</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L223" t="n">
         <v>4.726000000000001</v>
@@ -11566,7 +11556,7 @@
         <v>0.9000000000000012</v>
       </c>
       <c r="K224" t="n">
-        <v>-10.00000000000031</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L224" t="n">
         <v>4.726000000000001</v>
@@ -11617,7 +11607,7 @@
         <v>0.9000000000000012</v>
       </c>
       <c r="K225" t="n">
-        <v>-10.00000000000031</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L225" t="n">
         <v>4.725000000000001</v>
@@ -11668,7 +11658,7 @@
         <v>0.910000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-10.00000000000031</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L226" t="n">
         <v>4.725000000000001</v>
@@ -11719,7 +11709,7 @@
         <v>0.9200000000000008</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.28571428571453</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>4.725000000000001</v>
@@ -11770,7 +11760,7 @@
         <v>0.9200000000000008</v>
       </c>
       <c r="K228" t="n">
-        <v>-20.00000000000018</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L228" t="n">
         <v>4.725000000000001</v>
@@ -11821,7 +11811,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K229" t="n">
-        <v>-14.28571428571453</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L229" t="n">
         <v>4.724000000000001</v>
@@ -11872,7 +11862,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K230" t="n">
-        <v>-10.00000000000031</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L230" t="n">
         <v>4.723000000000001</v>
@@ -11923,7 +11913,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K231" t="n">
-        <v>-15.78947368421077</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L231" t="n">
         <v>4.721</v>
@@ -11974,7 +11964,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K232" t="n">
-        <v>14.28571428571411</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L232" t="n">
         <v>4.718999999999999</v>
@@ -12025,7 +12015,7 @@
         <v>0.9400000000000013</v>
       </c>
       <c r="K233" t="n">
-        <v>14.28571428571465</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L233" t="n">
         <v>4.717000000000001</v>
@@ -12076,7 +12066,7 @@
         <v>0.950000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>6.666666666666508</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L234" t="n">
         <v>4.718</v>
@@ -12127,7 +12117,7 @@
         <v>0.9600000000000026</v>
       </c>
       <c r="K235" t="n">
-        <v>6.666666666667062</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L235" t="n">
         <v>4.72</v>
@@ -12178,7 +12168,7 @@
         <v>0.9600000000000026</v>
       </c>
       <c r="K236" t="n">
-        <v>6.666666666667062</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L236" t="n">
         <v>4.720999999999999</v>
@@ -12229,7 +12219,7 @@
         <v>0.9800000000000022</v>
       </c>
       <c r="K237" t="n">
-        <v>24.99999999999986</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L237" t="n">
         <v>4.725</v>
@@ -12280,7 +12270,7 @@
         <v>0.9800000000000022</v>
       </c>
       <c r="K238" t="n">
-        <v>24.99999999999986</v>
+        <v>59.99999999999858</v>
       </c>
       <c r="L238" t="n">
         <v>4.728999999999999</v>
@@ -12331,7 +12321,7 @@
         <v>0.990000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>6.666666666666508</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>4.731</v>
@@ -12382,7 +12372,7 @@
         <v>0.990000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>6.666666666666508</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>4.733</v>
@@ -12433,7 +12423,7 @@
         <v>0.990000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>4.735</v>
@@ -12484,7 +12474,7 @@
         <v>1.000000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>6.666666666666508</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L242" t="n">
         <v>4.738</v>
@@ -12535,7 +12525,7 @@
         <v>1.000000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L243" t="n">
         <v>4.74</v>
@@ -12586,7 +12576,7 @@
         <v>1.010000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>45.45454545454516</v>
+        <v>60</v>
       </c>
       <c r="L244" t="n">
         <v>4.744000000000001</v>
@@ -12688,7 +12678,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>16.66666666666704</v>
+        <v>-20</v>
       </c>
       <c r="L246" t="n">
         <v>4.747000000000002</v>
@@ -12739,7 +12729,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>27.27272727272742</v>
+        <v>-20</v>
       </c>
       <c r="L247" t="n">
         <v>4.746000000000001</v>
@@ -12790,7 +12780,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>27.27272727272742</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>4.745000000000002</v>
@@ -12841,7 +12831,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>27.27272727272742</v>
+        <v>20</v>
       </c>
       <c r="L249" t="n">
         <v>4.746000000000001</v>
@@ -12892,7 +12882,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>4.746000000000001</v>
@@ -12943,7 +12933,7 @@
         <v>1.06</v>
       </c>
       <c r="K251" t="n">
-        <v>23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>4.747000000000002</v>
@@ -12994,7 +12984,7 @@
         <v>1.07</v>
       </c>
       <c r="K252" t="n">
-        <v>14.28571428571465</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L252" t="n">
         <v>4.746000000000001</v>
@@ -13045,7 +13035,7 @@
         <v>1.07</v>
       </c>
       <c r="K253" t="n">
-        <v>7.692307692307587</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>4.745000000000002</v>
@@ -13096,7 +13086,7 @@
         <v>1.08</v>
       </c>
       <c r="K254" t="n">
-        <v>23.0769230769236</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>4.744000000000002</v>
@@ -13147,7 +13137,7 @@
         <v>1.09</v>
       </c>
       <c r="K255" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>4.743000000000002</v>
@@ -13198,7 +13188,7 @@
         <v>1.09</v>
       </c>
       <c r="K256" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>4.743000000000002</v>
@@ -13249,7 +13239,7 @@
         <v>1.09</v>
       </c>
       <c r="K257" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>4.743000000000002</v>
@@ -13402,7 +13392,7 @@
         <v>1.109999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L260" t="n">
         <v>4.743000000000002</v>
@@ -13453,7 +13443,7 @@
         <v>1.119999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L261" t="n">
         <v>4.743000000000002</v>
@@ -13504,7 +13494,7 @@
         <v>1.129999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>4.743000000000002</v>
@@ -13555,7 +13545,7 @@
         <v>1.129999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L263" t="n">
         <v>4.743000000000002</v>
@@ -13606,7 +13596,7 @@
         <v>1.129999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>4.742000000000003</v>
@@ -13657,7 +13647,7 @@
         <v>1.139999999999999</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L265" t="n">
         <v>4.743000000000002</v>
@@ -13708,7 +13698,7 @@
         <v>1.139999999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>4.744000000000002</v>
@@ -13759,7 +13749,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L267" t="n">
         <v>4.744000000000002</v>
@@ -13861,7 +13851,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K269" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>4.743000000000002</v>
@@ -13912,7 +13902,7 @@
         <v>1.159999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>4.744000000000002</v>
@@ -13963,7 +13953,7 @@
         <v>1.159999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>4.744000000000002</v>
@@ -14014,7 +14004,7 @@
         <v>1.159999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>4.745000000000002</v>
@@ -14167,7 +14157,7 @@
         <v>1.189999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L275" t="n">
         <v>4.745000000000002</v>
@@ -14269,7 +14259,7 @@
         <v>1.199999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L277" t="n">
         <v>4.743000000000001</v>
@@ -14320,7 +14310,7 @@
         <v>1.209999999999997</v>
       </c>
       <c r="K278" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>4.743000000000001</v>
@@ -14371,7 +14361,7 @@
         <v>1.219999999999997</v>
       </c>
       <c r="K279" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>4.744000000000002</v>
@@ -14422,7 +14412,7 @@
         <v>1.219999999999997</v>
       </c>
       <c r="K280" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>4.744000000000002</v>
@@ -14575,7 +14565,7 @@
         <v>1.229999999999997</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L283" t="n">
         <v>4.743000000000001</v>
@@ -14728,7 +14718,7 @@
         <v>1.239999999999997</v>
       </c>
       <c r="K286" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>4.740000000000001</v>
@@ -14779,7 +14769,7 @@
         <v>1.239999999999997</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>4.74</v>
@@ -14830,7 +14820,7 @@
         <v>1.269999999999996</v>
       </c>
       <c r="K288" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>4.742</v>
@@ -14881,7 +14871,7 @@
         <v>1.279999999999996</v>
       </c>
       <c r="K289" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>4.744</v>
@@ -14932,7 +14922,7 @@
         <v>1.279999999999996</v>
       </c>
       <c r="K290" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L290" t="n">
         <v>4.746</v>
@@ -14983,7 +14973,7 @@
         <v>1.279999999999996</v>
       </c>
       <c r="K291" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L291" t="n">
         <v>4.747999999999999</v>
@@ -15034,7 +15024,7 @@
         <v>1.309999999999996</v>
       </c>
       <c r="K292" t="n">
-        <v>33.33333333333373</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L292" t="n">
         <v>4.753999999999999</v>
@@ -15085,7 +15075,7 @@
         <v>1.309999999999996</v>
       </c>
       <c r="K293" t="n">
-        <v>42.85714285714322</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L293" t="n">
         <v>4.759999999999998</v>
@@ -15136,7 +15126,7 @@
         <v>1.319999999999996</v>
       </c>
       <c r="K294" t="n">
-        <v>28.57142857142902</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L294" t="n">
         <v>4.764999999999998</v>
@@ -15187,7 +15177,7 @@
         <v>1.319999999999996</v>
       </c>
       <c r="K295" t="n">
-        <v>38.46153846153888</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L295" t="n">
         <v>4.770999999999998</v>
@@ -15238,7 +15228,7 @@
         <v>1.329999999999996</v>
       </c>
       <c r="K296" t="n">
-        <v>42.85714285714322</v>
+        <v>77.777777777778</v>
       </c>
       <c r="L296" t="n">
         <v>4.777999999999997</v>
@@ -15289,7 +15279,7 @@
         <v>1.329999999999996</v>
       </c>
       <c r="K297" t="n">
-        <v>53.84615384615417</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L297" t="n">
         <v>4.784999999999997</v>
@@ -15340,7 +15330,7 @@
         <v>1.329999999999996</v>
       </c>
       <c r="K298" t="n">
-        <v>50.00000000000037</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L298" t="n">
         <v>4.788999999999996</v>
@@ -15391,7 +15381,7 @@
         <v>1.329999999999996</v>
       </c>
       <c r="K299" t="n">
-        <v>45.45454545454589</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L299" t="n">
         <v>4.791999999999996</v>
@@ -15442,7 +15432,7 @@
         <v>1.379999999999995</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L300" t="n">
         <v>4.789999999999996</v>
@@ -15493,7 +15483,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K301" t="n">
-        <v>5.88235294117641</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L301" t="n">
         <v>4.788999999999996</v>
@@ -15544,7 +15534,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K302" t="n">
-        <v>12.49999999999986</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L302" t="n">
         <v>4.784999999999996</v>
@@ -15595,7 +15585,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K303" t="n">
-        <v>12.49999999999986</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L303" t="n">
         <v>4.780999999999996</v>
@@ -15646,7 +15636,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K304" t="n">
-        <v>12.49999999999986</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L304" t="n">
         <v>4.777999999999996</v>
@@ -15697,7 +15687,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K305" t="n">
-        <v>19.99999999999976</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L305" t="n">
         <v>4.774999999999996</v>
@@ -15748,7 +15738,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K306" t="n">
-        <v>19.99999999999976</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L306" t="n">
         <v>4.770999999999995</v>
@@ -15799,7 +15789,7 @@
         <v>1.389999999999995</v>
       </c>
       <c r="K307" t="n">
-        <v>19.99999999999976</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L307" t="n">
         <v>4.766999999999996</v>
@@ -15850,7 +15840,7 @@
         <v>1.399999999999995</v>
       </c>
       <c r="K308" t="n">
-        <v>-7.692307692307587</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L308" t="n">
         <v>4.761999999999996</v>
@@ -15901,7 +15891,7 @@
         <v>1.409999999999995</v>
       </c>
       <c r="K309" t="n">
-        <v>-7.692307692307587</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>4.757999999999996</v>
@@ -15952,7 +15942,7 @@
         <v>1.419999999999995</v>
       </c>
       <c r="K310" t="n">
-        <v>-14.28571428571411</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>4.757999999999996</v>
@@ -16003,7 +15993,7 @@
         <v>1.429999999999994</v>
       </c>
       <c r="K311" t="n">
-        <v>-6.666666666666588</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>4.757999999999996</v>
@@ -16054,7 +16044,7 @@
         <v>1.449999999999994</v>
       </c>
       <c r="K312" t="n">
-        <v>-42.85714285714322</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L312" t="n">
         <v>4.755999999999997</v>
@@ -16105,7 +16095,7 @@
         <v>1.459999999999994</v>
       </c>
       <c r="K313" t="n">
-        <v>-33.33333333333373</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L313" t="n">
         <v>4.754999999999997</v>
@@ -16156,7 +16146,7 @@
         <v>1.469999999999994</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333373</v>
+        <v>-25</v>
       </c>
       <c r="L314" t="n">
         <v>4.752999999999997</v>
@@ -16207,7 +16197,7 @@
         <v>1.479999999999993</v>
       </c>
       <c r="K315" t="n">
-        <v>-25.00000000000042</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L315" t="n">
         <v>4.751999999999997</v>
@@ -16258,7 +16248,7 @@
         <v>1.519999999999993</v>
       </c>
       <c r="K316" t="n">
-        <v>-5.263157894736794</v>
+        <v>23.0769230769236</v>
       </c>
       <c r="L316" t="n">
         <v>4.754999999999997</v>
@@ -16309,7 +16299,7 @@
         <v>1.539999999999994</v>
       </c>
       <c r="K317" t="n">
-        <v>-14.28571428571453</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L317" t="n">
         <v>4.755999999999998</v>
@@ -16360,7 +16350,7 @@
         <v>1.599999999999993</v>
       </c>
       <c r="K318" t="n">
-        <v>-33.33333333333356</v>
+        <v>-26.31578947368431</v>
       </c>
       <c r="L318" t="n">
         <v>4.751999999999998</v>
@@ -16411,7 +16401,7 @@
         <v>1.609999999999993</v>
       </c>
       <c r="K319" t="n">
-        <v>-28.57142857142884</v>
+        <v>-15.78947368421077</v>
       </c>
       <c r="L319" t="n">
         <v>4.747999999999998</v>
@@ -16462,7 +16452,7 @@
         <v>1.609999999999993</v>
       </c>
       <c r="K320" t="n">
-        <v>-13.0434782608698</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L320" t="n">
         <v>4.744999999999998</v>
@@ -16513,7 +16503,7 @@
         <v>1.619999999999994</v>
       </c>
       <c r="K321" t="n">
-        <v>-13.04347826086937</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L321" t="n">
         <v>4.741999999999998</v>
@@ -16564,7 +16554,7 @@
         <v>1.629999999999994</v>
       </c>
       <c r="K322" t="n">
-        <v>-8.33333333333321</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L322" t="n">
         <v>4.741999999999998</v>
@@ -16615,7 +16605,7 @@
         <v>1.659999999999994</v>
       </c>
       <c r="K323" t="n">
-        <v>-18.51851851851854</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L323" t="n">
         <v>4.737999999999998</v>
@@ -16666,7 +16656,7 @@
         <v>1.669999999999994</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571438</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L324" t="n">
         <v>4.735999999999998</v>
@@ -16717,7 +16707,7 @@
         <v>1.709999999999994</v>
       </c>
       <c r="K325" t="n">
-        <v>-25.00000000000014</v>
+        <v>-57.89473684210531</v>
       </c>
       <c r="L325" t="n">
         <v>4.728999999999997</v>
@@ -16768,7 +16758,7 @@
         <v>1.749999999999994</v>
       </c>
       <c r="K326" t="n">
-        <v>-11.11111111111117</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L326" t="n">
         <v>4.721999999999998</v>
@@ -16819,7 +16809,7 @@
         <v>1.759999999999994</v>
       </c>
       <c r="K327" t="n">
-        <v>-13.51351351351352</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>4.715999999999998</v>
@@ -16870,7 +16860,7 @@
         <v>1.759999999999994</v>
       </c>
       <c r="K328" t="n">
-        <v>-11.11111111111117</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L328" t="n">
         <v>4.715999999999998</v>
@@ -16921,7 +16911,7 @@
         <v>1.759999999999994</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L329" t="n">
         <v>4.714999999999998</v>
@@ -16972,7 +16962,7 @@
         <v>1.759999999999994</v>
       </c>
       <c r="K330" t="n">
-        <v>-11.76470588235299</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L330" t="n">
         <v>4.713999999999999</v>
@@ -17023,7 +17013,7 @@
         <v>1.759999999999994</v>
       </c>
       <c r="K331" t="n">
-        <v>-15.15151515151513</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L331" t="n">
         <v>4.711999999999999</v>
@@ -17074,7 +17064,7 @@
         <v>1.769999999999993</v>
       </c>
       <c r="K332" t="n">
-        <v>-12.50000000000004</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L332" t="n">
         <v>4.707999999999999</v>
@@ -17125,7 +17115,7 @@
         <v>1.769999999999993</v>
       </c>
       <c r="K333" t="n">
-        <v>-16.12903225806448</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L333" t="n">
         <v>4.706999999999999</v>
@@ -17176,7 +17166,7 @@
         <v>1.779999999999993</v>
       </c>
       <c r="K334" t="n">
-        <v>-9.677419354838802</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L334" t="n">
         <v>4.706</v>
@@ -17227,7 +17217,7 @@
         <v>1.799999999999994</v>
       </c>
       <c r="K335" t="n">
-        <v>-6.249999999999861</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L335" t="n">
         <v>4.710999999999999</v>
@@ -17278,7 +17268,7 @@
         <v>1.809999999999993</v>
       </c>
       <c r="K336" t="n">
-        <v>-17.24137931034477</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L336" t="n">
         <v>4.712999999999999</v>
@@ -17329,7 +17319,7 @@
         <v>1.809999999999993</v>
       </c>
       <c r="K337" t="n">
-        <v>-11.11111111111089</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L337" t="n">
         <v>4.715999999999999</v>
@@ -17380,7 +17370,7 @@
         <v>1.819999999999993</v>
       </c>
       <c r="K338" t="n">
-        <v>9.09090909090931</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L338" t="n">
         <v>4.718</v>
@@ -17431,7 +17421,7 @@
         <v>1.819999999999993</v>
       </c>
       <c r="K339" t="n">
-        <v>4.761904761905084</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L339" t="n">
         <v>4.72</v>
@@ -17482,7 +17472,7 @@
         <v>1.899999999999993</v>
       </c>
       <c r="K340" t="n">
-        <v>-24.13793103448255</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L340" t="n">
         <v>4.714</v>
@@ -17533,7 +17523,7 @@
         <v>1.929999999999993</v>
       </c>
       <c r="K341" t="n">
-        <v>-16.12903225806481</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L341" t="n">
         <v>4.710999999999999</v>
@@ -17584,7 +17574,7 @@
         <v>1.929999999999993</v>
       </c>
       <c r="K342" t="n">
-        <v>-20.00000000000024</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L342" t="n">
         <v>4.708999999999999</v>
@@ -17635,7 +17625,7 @@
         <v>1.929999999999993</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.11111111111126</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L343" t="n">
         <v>4.706999999999999</v>
@@ -17686,7 +17676,7 @@
         <v>1.929999999999993</v>
       </c>
       <c r="K344" t="n">
-        <v>-15.38461538461546</v>
+        <v>-38.46153846153931</v>
       </c>
       <c r="L344" t="n">
         <v>4.703999999999999</v>
@@ -17737,7 +17727,7 @@
         <v>1.939999999999993</v>
       </c>
       <c r="K345" t="n">
-        <v>4.347826086956824</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L345" t="n">
         <v>4.699999999999998</v>
@@ -17788,7 +17778,7 @@
         <v>1.989999999999993</v>
       </c>
       <c r="K346" t="n">
-        <v>8.333333333333549</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>4.699999999999998</v>
@@ -17839,7 +17829,7 @@
         <v>1.989999999999993</v>
       </c>
       <c r="K347" t="n">
-        <v>13.0434782608697</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L347" t="n">
         <v>4.699999999999998</v>
@@ -17890,7 +17880,7 @@
         <v>2.009999999999994</v>
       </c>
       <c r="K348" t="n">
-        <v>3.999999999999915</v>
+        <v>-5.263157894737187</v>
       </c>
       <c r="L348" t="n">
         <v>4.698999999999998</v>
@@ -17941,7 +17931,7 @@
         <v>2.019999999999993</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L349" t="n">
         <v>4.696999999999998</v>
@@ -17992,7 +17982,7 @@
         <v>2.039999999999994</v>
       </c>
       <c r="K350" t="n">
-        <v>7.142857142857302</v>
+        <v>45.4545454545456</v>
       </c>
       <c r="L350" t="n">
         <v>4.704999999999999</v>
@@ -18043,7 +18033,7 @@
         <v>2.059999999999993</v>
       </c>
       <c r="K351" t="n">
-        <v>13.33333333333335</v>
+        <v>53.84615384615374</v>
       </c>
       <c r="L351" t="n">
         <v>4.711999999999999</v>
@@ -18094,7 +18084,7 @@
         <v>2.069999999999993</v>
       </c>
       <c r="K352" t="n">
-        <v>13.33333333333335</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L352" t="n">
         <v>4.717999999999999</v>
@@ -18145,7 +18135,7 @@
         <v>2.069999999999993</v>
       </c>
       <c r="K353" t="n">
-        <v>13.33333333333335</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L353" t="n">
         <v>4.723999999999999</v>
@@ -18196,7 +18186,7 @@
         <v>2.079999999999993</v>
       </c>
       <c r="K354" t="n">
-        <v>6.666666666666825</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L354" t="n">
         <v>4.729</v>
@@ -18247,7 +18237,7 @@
         <v>2.089999999999993</v>
       </c>
       <c r="K355" t="n">
-        <v>3.448275862068902</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>4.734</v>
@@ -18349,7 +18339,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K357" t="n">
-        <v>3.448275862068902</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L357" t="n">
         <v>4.735</v>
@@ -18400,7 +18390,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K358" t="n">
-        <v>7.142857142857006</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L358" t="n">
         <v>4.738</v>
@@ -18451,7 +18441,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K359" t="n">
-        <v>7.142857142857006</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>4.742</v>
@@ -18502,7 +18492,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K360" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>4.744</v>
@@ -18553,7 +18543,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K361" t="n">
-        <v>41.17647058823548</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>4.744</v>
@@ -18604,7 +18594,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K362" t="n">
-        <v>41.17647058823548</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>4.744999999999999</v>
@@ -18655,7 +18645,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K363" t="n">
-        <v>41.17647058823548</v>
+        <v>100</v>
       </c>
       <c r="L363" t="n">
         <v>4.746</v>
@@ -18706,7 +18696,7 @@
         <v>2.109999999999992</v>
       </c>
       <c r="K364" t="n">
-        <v>33.33333333333366</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>4.747</v>
@@ -18808,7 +18798,7 @@
         <v>2.139999999999992</v>
       </c>
       <c r="K366" t="n">
-        <v>19.99999999999976</v>
+        <v>50</v>
       </c>
       <c r="L366" t="n">
         <v>4.750999999999999</v>
@@ -18859,7 +18849,7 @@
         <v>2.149999999999991</v>
       </c>
       <c r="K367" t="n">
-        <v>12.49999999999986</v>
+        <v>20</v>
       </c>
       <c r="L367" t="n">
         <v>4.752</v>
@@ -18910,7 +18900,7 @@
         <v>2.159999999999991</v>
       </c>
       <c r="K368" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>4.754</v>
@@ -18961,7 +18951,7 @@
         <v>2.159999999999991</v>
       </c>
       <c r="K369" t="n">
-        <v>42.85714285714322</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L369" t="n">
         <v>4.755999999999998</v>
@@ -19063,7 +19053,7 @@
         <v>2.159999999999991</v>
       </c>
       <c r="K371" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>4.759999999999998</v>
@@ -19165,7 +19155,7 @@
         <v>2.159999999999991</v>
       </c>
       <c r="K373" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L373" t="n">
         <v>4.763999999999998</v>
@@ -19267,7 +19257,7 @@
         <v>2.169999999999991</v>
       </c>
       <c r="K375" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>4.767999999999996</v>
@@ -19318,7 +19308,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K376" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>4.765999999999996</v>
@@ -19369,7 +19359,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L377" t="n">
         <v>4.764999999999997</v>
@@ -19420,7 +19410,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L378" t="n">
         <v>4.762999999999996</v>
@@ -19471,7 +19461,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L379" t="n">
         <v>4.760999999999997</v>
@@ -19522,7 +19512,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L380" t="n">
         <v>4.758999999999998</v>
@@ -19573,7 +19563,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L381" t="n">
         <v>4.756999999999998</v>
@@ -19624,7 +19614,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L382" t="n">
         <v>4.754999999999998</v>
@@ -19675,7 +19665,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L383" t="n">
         <v>4.752999999999998</v>
@@ -19726,7 +19716,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K384" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L384" t="n">
         <v>4.750999999999999</v>
@@ -19776,9 +19766,7 @@
       <c r="J385" t="n">
         <v>2.179999999999991</v>
       </c>
-      <c r="K385" t="n">
-        <v>0</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>4.749999999999999</v>
       </c>
@@ -19828,7 +19816,7 @@
         <v>2.189999999999991</v>
       </c>
       <c r="K386" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L386" t="n">
         <v>4.750999999999999</v>
@@ -19879,7 +19867,7 @@
         <v>2.19999999999999</v>
       </c>
       <c r="K387" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>4.750999999999999</v>
@@ -19930,7 +19918,7 @@
         <v>2.19999999999999</v>
       </c>
       <c r="K388" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>4.750999999999999</v>
@@ -19981,7 +19969,7 @@
         <v>2.20999999999999</v>
       </c>
       <c r="K389" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>4.751999999999999</v>
@@ -20032,7 +20020,7 @@
         <v>2.20999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>4.752999999999998</v>
@@ -20083,7 +20071,7 @@
         <v>2.229999999999991</v>
       </c>
       <c r="K391" t="n">
-        <v>14.28571428571537</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L391" t="n">
         <v>4.755999999999998</v>
@@ -20134,7 +20122,7 @@
         <v>2.239999999999991</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L392" t="n">
         <v>4.757999999999998</v>
@@ -20185,7 +20173,7 @@
         <v>2.249999999999991</v>
       </c>
       <c r="K393" t="n">
-        <v>-11.11111111111089</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L393" t="n">
         <v>4.758999999999999</v>
@@ -20236,7 +20224,7 @@
         <v>2.259999999999991</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L394" t="n">
         <v>4.760999999999998</v>
@@ -20338,7 +20326,7 @@
         <v>2.269999999999991</v>
       </c>
       <c r="K396" t="n">
-        <v>11.11111111111089</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L396" t="n">
         <v>4.761999999999999</v>
@@ -20389,7 +20377,7 @@
         <v>2.27999999999999</v>
       </c>
       <c r="K397" t="n">
-        <v>19.99999999999964</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L397" t="n">
         <v>4.763999999999998</v>
@@ -20440,7 +20428,7 @@
         <v>2.27999999999999</v>
       </c>
       <c r="K398" t="n">
-        <v>19.99999999999964</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L398" t="n">
         <v>4.765999999999998</v>
@@ -20491,7 +20479,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K399" t="n">
-        <v>9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>4.765999999999998</v>
@@ -20542,7 +20530,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K400" t="n">
-        <v>9.090909090908944</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L400" t="n">
         <v>4.765999999999998</v>
@@ -20593,7 +20581,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K401" t="n">
-        <v>9.090909090908944</v>
+        <v>-20</v>
       </c>
       <c r="L401" t="n">
         <v>4.763999999999998</v>
@@ -20644,7 +20632,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K402" t="n">
-        <v>9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>4.762999999999998</v>
@@ -20695,7 +20683,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K403" t="n">
-        <v>9.090909090908944</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L403" t="n">
         <v>4.762999999999998</v>
@@ -20746,7 +20734,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K404" t="n">
-        <v>9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>4.761999999999998</v>
@@ -20797,7 +20785,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K405" t="n">
-        <v>9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>4.761999999999998</v>
@@ -20848,7 +20836,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L406" t="n">
         <v>4.761999999999998</v>
@@ -20899,7 +20887,7 @@
         <v>2.28999999999999</v>
       </c>
       <c r="K407" t="n">
-        <v>11.11111111111089</v>
+        <v>-100</v>
       </c>
       <c r="L407" t="n">
         <v>4.760999999999997</v>
@@ -20949,9 +20937,7 @@
       <c r="J408" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K408" t="n">
-        <v>11.11111111111089</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21000,9 +20986,7 @@
       <c r="J409" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K409" t="n">
-        <v>0</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21051,9 +21035,7 @@
       <c r="J410" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K410" t="n">
-        <v>0</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21102,9 +21084,7 @@
       <c r="J411" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K411" t="n">
-        <v>-33.33333333333432</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21153,9 +21133,7 @@
       <c r="J412" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K412" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21204,9 +21182,7 @@
       <c r="J413" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K413" t="n">
-        <v>0</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21255,9 +21231,7 @@
       <c r="J414" t="n">
         <v>2.28999999999999</v>
       </c>
-      <c r="K414" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>4.759999999999996</v>
       </c>
@@ -21307,7 +21281,7 @@
         <v>2.29999999999999</v>
       </c>
       <c r="K415" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L415" t="n">
         <v>4.758999999999997</v>
@@ -21358,7 +21332,7 @@
         <v>2.30999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L416" t="n">
         <v>4.756999999999997</v>
@@ -21766,7 +21740,7 @@
         <v>2.349999999999991</v>
       </c>
       <c r="K424" t="n">
-        <v>-33.33333333333235</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L424" t="n">
         <v>4.735999999999999</v>
@@ -21817,7 +21791,7 @@
         <v>2.359999999999991</v>
       </c>
       <c r="K425" t="n">
-        <v>-42.85714285714177</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L425" t="n">
         <v>4.733999999999999</v>
@@ -21868,7 +21842,7 @@
         <v>2.359999999999991</v>
       </c>
       <c r="K426" t="n">
-        <v>-42.85714285714177</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L426" t="n">
         <v>4.732999999999999</v>
@@ -21919,7 +21893,7 @@
         <v>2.36999999999999</v>
       </c>
       <c r="K427" t="n">
-        <v>-24.99999999999945</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>4.732999999999999</v>
@@ -21970,7 +21944,7 @@
         <v>2.36999999999999</v>
       </c>
       <c r="K428" t="n">
-        <v>-24.99999999999945</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L428" t="n">
         <v>4.732999999999999</v>
@@ -22021,7 +21995,7 @@
         <v>2.36999999999999</v>
       </c>
       <c r="K429" t="n">
-        <v>-24.99999999999945</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L429" t="n">
         <v>4.734999999999999</v>
@@ -22072,7 +22046,7 @@
         <v>2.36999999999999</v>
       </c>
       <c r="K430" t="n">
-        <v>-24.99999999999945</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>4.736</v>
@@ -22123,7 +22097,7 @@
         <v>2.36999999999999</v>
       </c>
       <c r="K431" t="n">
-        <v>-24.99999999999945</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>4.737</v>
@@ -22174,7 +22148,7 @@
         <v>2.38999999999999</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L432" t="n">
         <v>4.74</v>
@@ -22225,7 +22199,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K433" t="n">
-        <v>-9.090909090908944</v>
+        <v>20</v>
       </c>
       <c r="L433" t="n">
         <v>4.741000000000001</v>
@@ -22276,7 +22250,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K434" t="n">
-        <v>-9.090909090908944</v>
+        <v>50</v>
       </c>
       <c r="L434" t="n">
         <v>4.742</v>
@@ -22327,7 +22301,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L435" t="n">
         <v>4.744</v>
@@ -22378,7 +22352,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K436" t="n">
-        <v>11.11111111111089</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>4.746</v>
@@ -22429,7 +22403,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K437" t="n">
-        <v>11.11111111111089</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>4.746999999999999</v>
@@ -22480,7 +22454,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K438" t="n">
-        <v>11.11111111111089</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>4.747999999999999</v>
@@ -22531,7 +22505,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K439" t="n">
-        <v>42.85714285714358</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>4.748999999999999</v>
@@ -22633,7 +22607,7 @@
         <v>2.39999999999999</v>
       </c>
       <c r="K441" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L441" t="n">
         <v>4.750999999999999</v>
@@ -22683,9 +22657,7 @@
       <c r="J442" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K442" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -22734,9 +22706,7 @@
       <c r="J443" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K443" t="n">
-        <v>20</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -22785,9 +22755,7 @@
       <c r="J444" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K444" t="n">
-        <v>20</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -22836,9 +22804,7 @@
       <c r="J445" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K445" t="n">
-        <v>50</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -22887,9 +22853,7 @@
       <c r="J446" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K446" t="n">
-        <v>50</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -22938,9 +22902,7 @@
       <c r="J447" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K447" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -22989,9 +22951,7 @@
       <c r="J448" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K448" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -23040,9 +23000,7 @@
       <c r="J449" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K449" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -23091,9 +23049,7 @@
       <c r="J450" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K450" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -23142,9 +23098,7 @@
       <c r="J451" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K451" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -23193,9 +23147,7 @@
       <c r="J452" t="n">
         <v>2.39999999999999</v>
       </c>
-      <c r="K452" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>4.749999999999998</v>
       </c>
@@ -24145,7 +24097,7 @@
         <v>2.489999999999988</v>
       </c>
       <c r="K471" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>4.740999999999999</v>
@@ -24196,7 +24148,7 @@
         <v>2.499999999999988</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L472" t="n">
         <v>4.741999999999999</v>
@@ -24247,7 +24199,7 @@
         <v>2.509999999999987</v>
       </c>
       <c r="K473" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L473" t="n">
         <v>4.742999999999999</v>
@@ -24349,7 +24301,7 @@
         <v>2.529999999999987</v>
       </c>
       <c r="K475" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L475" t="n">
         <v>4.741999999999999</v>
@@ -24400,7 +24352,7 @@
         <v>2.539999999999987</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L476" t="n">
         <v>4.741999999999999</v>
@@ -24451,7 +24403,7 @@
         <v>2.539999999999987</v>
       </c>
       <c r="K477" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L477" t="n">
         <v>4.742999999999999</v>
@@ -24502,7 +24454,7 @@
         <v>2.549999999999986</v>
       </c>
       <c r="K478" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L478" t="n">
         <v>4.744</v>
@@ -24553,7 +24505,7 @@
         <v>2.549999999999986</v>
       </c>
       <c r="K479" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L479" t="n">
         <v>4.745</v>
@@ -24604,7 +24556,7 @@
         <v>2.559999999999986</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L480" t="n">
         <v>4.745</v>
@@ -24655,7 +24607,7 @@
         <v>2.569999999999986</v>
       </c>
       <c r="K481" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L481" t="n">
         <v>4.745</v>
@@ -24706,7 +24658,7 @@
         <v>2.579999999999986</v>
       </c>
       <c r="K482" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L482" t="n">
         <v>4.745</v>
@@ -24757,7 +24709,7 @@
         <v>2.579999999999986</v>
       </c>
       <c r="K483" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L483" t="n">
         <v>4.746</v>
@@ -24812,7 +24764,7 @@
         <v>2.579999999999986</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L484" t="n">
         <v>4.746</v>
@@ -24926,7 +24878,7 @@
         <v>2.589999999999986</v>
       </c>
       <c r="K486" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L486" t="n">
         <v>4.746</v>
@@ -25042,7 +24994,7 @@
         <v>2.599999999999985</v>
       </c>
       <c r="K488" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L488" t="n">
         <v>4.746</v>
@@ -25099,7 +25051,7 @@
         <v>2.599999999999985</v>
       </c>
       <c r="K489" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>4.747</v>
@@ -25156,7 +25108,7 @@
         <v>2.599999999999985</v>
       </c>
       <c r="K490" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>4.747</v>
@@ -25213,7 +25165,7 @@
         <v>2.609999999999985</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L491" t="n">
         <v>4.747</v>
@@ -25270,7 +25222,7 @@
         <v>2.609999999999985</v>
       </c>
       <c r="K492" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L492" t="n">
         <v>4.746</v>
@@ -25327,7 +25279,7 @@
         <v>2.609999999999985</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L493" t="n">
         <v>4.745</v>
@@ -25384,7 +25336,7 @@
         <v>2.609999999999985</v>
       </c>
       <c r="K494" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L494" t="n">
         <v>4.744000000000001</v>
@@ -25441,7 +25393,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K495" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>4.744000000000001</v>
@@ -25498,7 +25450,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K496" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>4.745</v>
@@ -25612,7 +25564,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K498" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>4.746</v>
@@ -25669,7 +25621,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K499" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>4.746</v>
@@ -25726,7 +25678,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K500" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L500" t="n">
         <v>4.746</v>
@@ -25783,7 +25735,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K501" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L501" t="n">
         <v>4.747</v>
@@ -25840,7 +25792,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L502" t="n">
         <v>4.747999999999999</v>
@@ -25897,7 +25849,7 @@
         <v>2.619999999999985</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L503" t="n">
         <v>4.749</v>
@@ -25948,7 +25900,7 @@
         <v>2.629999999999985</v>
       </c>
       <c r="K504" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L504" t="n">
         <v>4.750999999999999</v>
@@ -25999,7 +25951,7 @@
         <v>2.629999999999985</v>
       </c>
       <c r="K505" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L505" t="n">
         <v>4.751999999999999</v>
@@ -26054,7 +26006,7 @@
         <v>2.629999999999985</v>
       </c>
       <c r="K506" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L506" t="n">
         <v>4.752999999999998</v>
@@ -26111,7 +26063,7 @@
         <v>2.639999999999985</v>
       </c>
       <c r="K507" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L507" t="n">
         <v>4.754999999999998</v>
@@ -26170,7 +26122,7 @@
         <v>2.639999999999985</v>
       </c>
       <c r="K508" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L508" t="n">
         <v>4.756999999999998</v>
@@ -26227,7 +26179,7 @@
         <v>2.649999999999984</v>
       </c>
       <c r="K509" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>4.757999999999997</v>
@@ -26284,7 +26236,7 @@
         <v>2.649999999999984</v>
       </c>
       <c r="K510" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L510" t="n">
         <v>4.758999999999998</v>
@@ -26341,7 +26293,7 @@
         <v>2.659999999999984</v>
       </c>
       <c r="K511" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L511" t="n">
         <v>4.760999999999997</v>
@@ -26398,7 +26350,7 @@
         <v>2.659999999999984</v>
       </c>
       <c r="K512" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L512" t="n">
         <v>4.762999999999996</v>
@@ -26455,7 +26407,7 @@
         <v>2.659999999999984</v>
       </c>
       <c r="K513" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L513" t="n">
         <v>4.764999999999996</v>
@@ -26512,7 +26464,7 @@
         <v>2.659999999999984</v>
       </c>
       <c r="K514" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L514" t="n">
         <v>4.765999999999996</v>
@@ -26569,7 +26521,7 @@
         <v>2.669999999999985</v>
       </c>
       <c r="K515" t="n">
-        <v>60.00000000000071</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L515" t="n">
         <v>4.767999999999996</v>
@@ -26620,7 +26572,7 @@
         <v>2.679999999999986</v>
       </c>
       <c r="K516" t="n">
-        <v>33.33333333333235</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>4.768999999999997</v>
@@ -26671,7 +26623,7 @@
         <v>2.689999999999986</v>
       </c>
       <c r="K517" t="n">
-        <v>42.85714285714249</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L517" t="n">
         <v>4.769999999999996</v>
@@ -26722,7 +26674,7 @@
         <v>2.699999999999987</v>
       </c>
       <c r="K518" t="n">
-        <v>24.99999999999889</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L518" t="n">
         <v>4.769999999999996</v>
@@ -26773,7 +26725,7 @@
         <v>2.699999999999987</v>
       </c>
       <c r="K519" t="n">
-        <v>24.99999999999889</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L519" t="n">
         <v>4.770999999999995</v>
@@ -26824,7 +26776,7 @@
         <v>2.709999999999988</v>
       </c>
       <c r="K520" t="n">
-        <v>33.33333333333267</v>
+        <v>20</v>
       </c>
       <c r="L520" t="n">
         <v>4.772999999999996</v>
@@ -26875,7 +26827,7 @@
         <v>2.709999999999988</v>
       </c>
       <c r="K521" t="n">
-        <v>33.33333333333267</v>
+        <v>20</v>
       </c>
       <c r="L521" t="n">
         <v>4.773999999999996</v>
@@ -26926,7 +26878,7 @@
         <v>2.719999999999988</v>
       </c>
       <c r="K522" t="n">
-        <v>19.99999999999893</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>4.773999999999996</v>
@@ -26977,7 +26929,7 @@
         <v>2.729999999999989</v>
       </c>
       <c r="K523" t="n">
-        <v>27.27272727272654</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L523" t="n">
         <v>4.774999999999997</v>
@@ -27028,7 +26980,7 @@
         <v>2.73999999999999</v>
       </c>
       <c r="K524" t="n">
-        <v>9.090909090908504</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L524" t="n">
         <v>4.774999999999997</v>
@@ -27079,7 +27031,7 @@
         <v>2.73999999999999</v>
       </c>
       <c r="K525" t="n">
-        <v>9.090909090908504</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>4.773999999999996</v>
@@ -27130,7 +27082,7 @@
         <v>2.73999999999999</v>
       </c>
       <c r="K526" t="n">
-        <v>9.090909090908504</v>
+        <v>-20</v>
       </c>
       <c r="L526" t="n">
         <v>4.773999999999996</v>
@@ -27283,7 +27235,7 @@
         <v>2.74999999999999</v>
       </c>
       <c r="K529" t="n">
-        <v>19.99999999999929</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>4.773999999999996</v>
@@ -27334,7 +27286,7 @@
         <v>2.759999999999991</v>
       </c>
       <c r="K530" t="n">
-        <v>9.090909090908356</v>
+        <v>-20</v>
       </c>
       <c r="L530" t="n">
         <v>4.772999999999996</v>
@@ -27385,7 +27337,7 @@
         <v>2.769999999999992</v>
       </c>
       <c r="K531" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L531" t="n">
         <v>4.772999999999996</v>
@@ -27436,7 +27388,7 @@
         <v>2.779999999999992</v>
       </c>
       <c r="K532" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L532" t="n">
         <v>4.772999999999996</v>
@@ -27538,7 +27490,7 @@
         <v>2.789999999999993</v>
       </c>
       <c r="K534" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L534" t="n">
         <v>4.772999999999996</v>
@@ -27589,7 +27541,7 @@
         <v>2.789999999999993</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L535" t="n">
         <v>4.773999999999996</v>
@@ -27691,7 +27643,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K537" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
         <v>4.773999999999996</v>
@@ -27742,7 +27694,7 @@
         <v>2.809999999999994</v>
       </c>
       <c r="K538" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>4.774999999999997</v>
@@ -27844,7 +27796,7 @@
         <v>2.819999999999995</v>
       </c>
       <c r="K540" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L540" t="n">
         <v>4.773999999999996</v>
@@ -27895,7 +27847,7 @@
         <v>2.829999999999996</v>
       </c>
       <c r="K541" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L541" t="n">
         <v>4.773999999999996</v>
@@ -27946,7 +27898,7 @@
         <v>2.829999999999996</v>
       </c>
       <c r="K542" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L542" t="n">
         <v>4.774999999999997</v>
@@ -27997,7 +27949,7 @@
         <v>2.839999999999996</v>
       </c>
       <c r="K543" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L543" t="n">
         <v>4.774999999999997</v>
@@ -28048,7 +28000,7 @@
         <v>2.839999999999996</v>
       </c>
       <c r="K544" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L544" t="n">
         <v>4.773999999999996</v>
@@ -28099,7 +28051,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K545" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L545" t="n">
         <v>4.773999999999996</v>
@@ -28150,7 +28102,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K546" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L546" t="n">
         <v>4.774999999999997</v>
@@ -28201,7 +28153,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K547" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>4.775999999999998</v>
@@ -28252,7 +28204,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K548" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L548" t="n">
         <v>4.775999999999998</v>
@@ -28303,7 +28255,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K549" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L549" t="n">
         <v>4.776999999999998</v>
@@ -28354,7 +28306,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K550" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>4.777999999999999</v>
@@ -28456,7 +28408,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K552" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L552" t="n">
         <v>4.777999999999999</v>
@@ -28507,7 +28459,7 @@
         <v>2.849999999999997</v>
       </c>
       <c r="K553" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L553" t="n">
         <v>4.778999999999999</v>
@@ -28557,9 +28509,7 @@
       <c r="J554" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K554" t="n">
-        <v>0</v>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28608,9 +28558,7 @@
       <c r="J555" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K555" t="n">
-        <v>0</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28659,9 +28607,7 @@
       <c r="J556" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K556" t="n">
-        <v>20</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28710,9 +28656,7 @@
       <c r="J557" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K557" t="n">
-        <v>20</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28761,9 +28705,7 @@
       <c r="J558" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K558" t="n">
-        <v>0</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28812,9 +28754,7 @@
       <c r="J559" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K559" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28863,9 +28803,7 @@
       <c r="J560" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K560" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28914,9 +28852,7 @@
       <c r="J561" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K561" t="n">
-        <v>0</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -28965,9 +28901,7 @@
       <c r="J562" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K562" t="n">
-        <v>0</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -29016,9 +28950,7 @@
       <c r="J563" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K563" t="n">
-        <v>100</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -29067,9 +28999,7 @@
       <c r="J564" t="n">
         <v>2.849999999999997</v>
       </c>
-      <c r="K564" t="n">
-        <v>100</v>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -29725,7 +29655,7 @@
         <v>2.869999999999997</v>
       </c>
       <c r="K577" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L577" t="n">
         <v>4.782999999999999</v>
@@ -29776,7 +29706,7 @@
         <v>2.869999999999997</v>
       </c>
       <c r="K578" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L578" t="n">
         <v>4.781999999999999</v>
@@ -29827,7 +29757,7 @@
         <v>2.869999999999997</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L579" t="n">
         <v>4.781</v>
@@ -29877,9 +29807,7 @@
       <c r="J580" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K580" t="n">
-        <v>0</v>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -29928,9 +29856,7 @@
       <c r="J581" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K581" t="n">
-        <v>0</v>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -29979,9 +29905,7 @@
       <c r="J582" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K582" t="n">
-        <v>0</v>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30030,9 +29954,7 @@
       <c r="J583" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K583" t="n">
-        <v>0</v>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30081,9 +30003,7 @@
       <c r="J584" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K584" t="n">
-        <v>0</v>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30132,9 +30052,7 @@
       <c r="J585" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K585" t="n">
-        <v>0</v>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30183,9 +30101,7 @@
       <c r="J586" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K586" t="n">
-        <v>0</v>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30234,9 +30150,7 @@
       <c r="J587" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K587" t="n">
-        <v>0</v>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30285,9 +30199,7 @@
       <c r="J588" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K588" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30336,9 +30248,7 @@
       <c r="J589" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K589" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -30387,9 +30297,7 @@
       <c r="J590" t="n">
         <v>2.869999999999997</v>
       </c>
-      <c r="K590" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>4.779999999999999</v>
       </c>
@@ -31290,7 +31198,7 @@
         <v>2.929999999999996</v>
       </c>
       <c r="K608" t="n">
-        <v>-66.66666666666717</v>
+        <v>0</v>
       </c>
       <c r="L608" t="n">
         <v>4.741000000000001</v>
@@ -31341,7 +31249,7 @@
         <v>2.929999999999996</v>
       </c>
       <c r="K609" t="n">
-        <v>-66.66666666666717</v>
+        <v>0</v>
       </c>
       <c r="L609" t="n">
         <v>4.741000000000001</v>
@@ -31392,7 +31300,7 @@
         <v>2.929999999999996</v>
       </c>
       <c r="K610" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100</v>
       </c>
       <c r="L610" t="n">
         <v>4.741000000000001</v>
@@ -31442,9 +31350,7 @@
       <c r="J611" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K611" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>4.74</v>
       </c>
@@ -31493,9 +31399,7 @@
       <c r="J612" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K612" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>4.74</v>
       </c>
@@ -31544,9 +31448,7 @@
       <c r="J613" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K613" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>4.74</v>
       </c>
@@ -31595,9 +31497,7 @@
       <c r="J614" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K614" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>4.74</v>
       </c>
@@ -31646,9 +31546,7 @@
       <c r="J615" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K615" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>4.74</v>
       </c>
@@ -31697,9 +31595,7 @@
       <c r="J616" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K616" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>4.74</v>
       </c>
@@ -31748,9 +31644,7 @@
       <c r="J617" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K617" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>4.74</v>
       </c>
@@ -31799,9 +31693,7 @@
       <c r="J618" t="n">
         <v>2.929999999999996</v>
       </c>
-      <c r="K618" t="n">
-        <v>-66.66666666666717</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>4.74</v>
       </c>
@@ -31851,7 +31743,7 @@
         <v>2.959999999999996</v>
       </c>
       <c r="K619" t="n">
-        <v>-60.00000000000071</v>
+        <v>-100</v>
       </c>
       <c r="L619" t="n">
         <v>4.737</v>
@@ -31902,7 +31794,7 @@
         <v>2.969999999999996</v>
       </c>
       <c r="K620" t="n">
-        <v>-33.33333333333432</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L620" t="n">
         <v>4.735</v>
@@ -31953,7 +31845,7 @@
         <v>2.969999999999996</v>
       </c>
       <c r="K621" t="n">
-        <v>-60.00000000000071</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L621" t="n">
         <v>4.733</v>
@@ -32310,7 +32202,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K628" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L628" t="n">
         <v>4.727999999999998</v>
@@ -32361,7 +32253,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K629" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L629" t="n">
         <v>4.731999999999998</v>
@@ -32412,7 +32304,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K630" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L630" t="n">
         <v>4.734999999999998</v>
@@ -32463,7 +32355,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K631" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L631" t="n">
         <v>4.740999999999998</v>
@@ -32514,7 +32406,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K632" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L632" t="n">
         <v>4.746999999999998</v>
@@ -32565,7 +32457,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K633" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L633" t="n">
         <v>4.752999999999998</v>
@@ -32616,7 +32508,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K634" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L634" t="n">
         <v>4.758999999999999</v>
@@ -32667,7 +32559,7 @@
         <v>3.049999999999997</v>
       </c>
       <c r="K635" t="n">
-        <v>16.66666666666617</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L635" t="n">
         <v>4.762999999999999</v>
@@ -32718,7 +32610,7 @@
         <v>3.059999999999997</v>
       </c>
       <c r="K636" t="n">
-        <v>23.07692307692244</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L636" t="n">
         <v>4.764999999999999</v>
@@ -32769,7 +32661,7 @@
         <v>3.059999999999997</v>
       </c>
       <c r="K637" t="n">
-        <v>23.07692307692244</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L637" t="n">
         <v>4.766999999999999</v>
@@ -32820,7 +32712,7 @@
         <v>3.059999999999997</v>
       </c>
       <c r="K638" t="n">
-        <v>23.07692307692244</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L638" t="n">
         <v>4.768999999999998</v>
@@ -32871,7 +32763,7 @@
         <v>3.069999999999998</v>
       </c>
       <c r="K639" t="n">
-        <v>63.63636363636319</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L639" t="n">
         <v>4.771999999999998</v>
@@ -32922,7 +32814,7 @@
         <v>3.079999999999997</v>
       </c>
       <c r="K640" t="n">
-        <v>63.63636363636319</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L640" t="n">
         <v>4.775999999999998</v>
@@ -32973,7 +32865,7 @@
         <v>3.089999999999997</v>
       </c>
       <c r="K641" t="n">
-        <v>66.66666666666617</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L641" t="n">
         <v>4.777999999999998</v>
@@ -33024,7 +32916,7 @@
         <v>3.109999999999998</v>
       </c>
       <c r="K642" t="n">
-        <v>71.42857142857106</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L642" t="n">
         <v>4.781999999999998</v>
@@ -33075,7 +32967,7 @@
         <v>3.119999999999997</v>
       </c>
       <c r="K643" t="n">
-        <v>73.33333333333294</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L643" t="n">
         <v>4.786999999999997</v>
@@ -33126,7 +33018,7 @@
         <v>3.119999999999997</v>
       </c>
       <c r="K644" t="n">
-        <v>73.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L644" t="n">
         <v>4.791999999999997</v>
@@ -33177,7 +33069,7 @@
         <v>3.139999999999998</v>
       </c>
       <c r="K645" t="n">
-        <v>52.94117647058763</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L645" t="n">
         <v>4.796999999999998</v>
@@ -33228,7 +33120,7 @@
         <v>3.169999999999998</v>
       </c>
       <c r="K646" t="n">
-        <v>52.94117647058763</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L646" t="n">
         <v>4.803999999999998</v>
@@ -33279,7 +33171,7 @@
         <v>3.189999999999998</v>
       </c>
       <c r="K647" t="n">
-        <v>36.8421052631578</v>
+        <v>38.46153846153877</v>
       </c>
       <c r="L647" t="n">
         <v>4.808999999999997</v>
@@ -33330,7 +33222,7 @@
         <v>3.199999999999998</v>
       </c>
       <c r="K648" t="n">
-        <v>39.99999999999982</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L648" t="n">
         <v>4.814999999999998</v>
@@ -33381,7 +33273,7 @@
         <v>3.199999999999998</v>
       </c>
       <c r="K649" t="n">
-        <v>39.99999999999982</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L649" t="n">
         <v>4.819999999999998</v>
@@ -33432,7 +33324,7 @@
         <v>3.209999999999997</v>
       </c>
       <c r="K650" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L650" t="n">
         <v>4.822999999999998</v>
@@ -33483,7 +33375,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K651" t="n">
-        <v>26.31578947368406</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L651" t="n">
         <v>4.825999999999998</v>
@@ -33534,7 +33426,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K652" t="n">
-        <v>26.31578947368406</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>4.826999999999997</v>
@@ -33585,7 +33477,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K653" t="n">
-        <v>26.31578947368406</v>
+        <v>0</v>
       </c>
       <c r="L653" t="n">
         <v>4.826999999999997</v>
@@ -33636,7 +33528,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K654" t="n">
-        <v>26.31578947368406</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L654" t="n">
         <v>4.826999999999997</v>
@@ -33687,7 +33579,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K655" t="n">
-        <v>41.17647058823548</v>
+        <v>-20</v>
       </c>
       <c r="L655" t="n">
         <v>4.828999999999997</v>
@@ -33738,7 +33630,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K656" t="n">
-        <v>37.50000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>4.827999999999998</v>
@@ -33789,7 +33681,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K657" t="n">
-        <v>37.50000000000028</v>
+        <v>0</v>
       </c>
       <c r="L657" t="n">
         <v>4.828999999999997</v>
@@ -33840,7 +33732,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K658" t="n">
-        <v>37.50000000000028</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>4.828999999999997</v>
@@ -33891,7 +33783,7 @@
         <v>3.219999999999997</v>
       </c>
       <c r="K659" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L659" t="n">
         <v>4.828999999999997</v>
@@ -33941,9 +33833,7 @@
       <c r="J660" t="n">
         <v>3.219999999999997</v>
       </c>
-      <c r="K660" t="n">
-        <v>28.57142857142867</v>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>4.829999999999997</v>
       </c>

--- a/BackTest/2019-10-19 BackTest PLY.xlsx
+++ b/BackTest/2019-10-19 BackTest PLY.xlsx
@@ -6051,17 +6051,13 @@
         <v>4.735333333333338</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K162" t="n">
-        <v>4.72</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
@@ -6096,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -8097,17 +8081,13 @@
         <v>4.727000000000007</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="K220" t="n">
-        <v>4.73</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
@@ -8142,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8183,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8463,20 +8431,14 @@
         <v>4.726500000000004</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>4.73</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8504,20 +8466,14 @@
         <v>4.726333333333338</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>4.72</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8591,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8630,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8669,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8708,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8747,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8786,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8864,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8942,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8981,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9020,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9059,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9098,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9137,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9215,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9332,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9371,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9410,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9449,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9488,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9527,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9566,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9605,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9683,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9722,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9761,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9800,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9878,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9956,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9995,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10034,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10073,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10112,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10190,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10229,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10268,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10307,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10346,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +10153,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10424,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +10258,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10541,11 +10293,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10580,11 +10328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +10363,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10658,11 +10398,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10697,11 +10433,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10736,11 +10468,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10775,11 +10503,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10814,11 +10538,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10853,11 +10573,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10892,11 +10608,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10931,11 +10643,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10966,16 +10674,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11038,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
@@ -12371,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="K334" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
@@ -12410,10 +12116,10 @@
         <v>0</v>
       </c>
       <c r="J335" t="n">
-        <v>4.73</v>
+        <v>4.71</v>
       </c>
       <c r="K335" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12447,16 +12153,14 @@
         <v>4.746499999999994</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>4.73</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12735,17 +12439,13 @@
         <v>4.740333333333327</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="K344" t="n">
-        <v>4.68</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
@@ -12774,22 +12474,14 @@
         <v>4.73966666666666</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K345" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12817,22 +12509,14 @@
         <v>4.739833333333326</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K346" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12860,17 +12544,13 @@
         <v>4.739999999999993</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K347" t="n">
-        <v>4.74</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
@@ -12899,22 +12579,14 @@
         <v>4.739333333333327</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="K348" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12948,14 +12620,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12989,14 +12655,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13024,22 +12684,14 @@
         <v>4.737333333333328</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K351" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13073,14 +12725,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13114,14 +12760,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13155,14 +12795,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13196,14 +12830,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13237,14 +12865,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13278,14 +12900,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13319,14 +12935,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13360,14 +12970,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13401,14 +13005,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13442,14 +13040,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13483,14 +13075,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13524,14 +13110,8 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13565,14 +13145,8 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13606,14 +13180,8 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13647,14 +13215,8 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13688,14 +13250,8 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13729,14 +13285,8 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13770,14 +13320,8 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13811,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13852,14 +13390,8 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13893,14 +13425,8 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13934,14 +13460,8 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13975,14 +13495,8 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14016,14 +13530,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14057,14 +13565,8 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14098,14 +13600,8 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14139,14 +13635,8 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14180,14 +13670,8 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14221,14 +13705,8 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14262,14 +13740,8 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14303,14 +13775,8 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14344,14 +13810,8 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14385,14 +13845,8 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14426,14 +13880,8 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14467,14 +13915,8 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14508,14 +13950,8 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14549,14 +13985,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14590,14 +14020,8 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14631,14 +14055,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14672,14 +14090,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14713,14 +14125,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14754,14 +14160,8 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14792,17 +14192,11 @@
         <v>0</v>
       </c>
       <c r="I394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14836,14 +14230,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14877,14 +14265,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14918,14 +14300,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14959,14 +14335,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15000,14 +14370,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15041,14 +14405,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15082,14 +14440,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15123,14 +14475,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15164,14 +14510,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +14545,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15246,14 +14580,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15287,14 +14615,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15328,14 +14650,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15369,14 +14685,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15410,14 +14720,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15451,14 +14755,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15492,14 +14790,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15533,14 +14825,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15574,14 +14860,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15615,14 +14895,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15656,14 +14930,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15697,14 +14965,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15738,14 +15000,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15779,14 +15035,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15820,14 +15070,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +15105,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15902,14 +15140,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15943,14 +15175,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15984,14 +15210,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16025,14 +15245,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16066,14 +15280,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16107,14 +15315,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16148,14 +15350,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16189,14 +15385,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16230,14 +15420,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16271,14 +15455,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16312,14 +15490,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16353,14 +15525,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16394,14 +15560,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16435,14 +15595,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16476,14 +15630,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16517,14 +15665,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16558,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16599,14 +15735,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16640,14 +15770,8 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16681,14 +15805,8 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16722,14 +15840,8 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16763,14 +15875,8 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16804,14 +15910,8 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16845,14 +15945,8 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16886,14 +15980,8 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +16015,8 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16968,14 +16050,8 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17009,14 +16085,8 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17050,14 +16120,8 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17091,14 +16155,8 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17132,14 +16190,8 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17173,14 +16225,8 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17214,14 +16260,8 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17255,14 +16295,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17296,14 +16330,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17337,14 +16365,8 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17378,14 +16400,8 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17419,14 +16435,8 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17460,14 +16470,8 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17501,14 +16505,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17542,14 +16540,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17583,14 +16575,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17624,14 +16610,8 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17665,14 +16645,8 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17706,14 +16680,8 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17747,14 +16715,8 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17788,14 +16750,8 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17829,14 +16785,8 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17870,14 +16820,8 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17911,14 +16855,8 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17952,14 +16890,8 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17993,14 +16925,8 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18034,14 +16960,8 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18075,14 +16995,8 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18116,14 +17030,8 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18157,14 +17065,8 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18198,14 +17100,8 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18239,14 +17135,8 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18280,14 +17170,8 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18321,14 +17205,8 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18362,14 +17240,8 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18403,14 +17275,8 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18444,14 +17310,8 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18485,14 +17345,8 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18526,14 +17380,8 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18567,14 +17415,8 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18608,14 +17450,8 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18649,14 +17485,8 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18690,14 +17520,8 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18731,14 +17555,8 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18772,14 +17590,8 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18813,14 +17625,8 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18854,14 +17660,8 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18895,14 +17695,8 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18936,14 +17730,8 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18977,14 +17765,8 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19018,14 +17800,8 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19059,14 +17835,8 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19100,14 +17870,8 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19141,14 +17905,8 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19182,14 +17940,8 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19223,14 +17975,8 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19264,14 +18010,8 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19305,14 +18045,8 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19346,14 +18080,8 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19387,14 +18115,8 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19428,14 +18150,8 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19469,14 +18185,8 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19510,14 +18220,8 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19551,14 +18255,8 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19592,14 +18290,8 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19633,14 +18325,8 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19674,14 +18360,8 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19715,14 +18395,8 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19756,14 +18430,8 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19797,14 +18465,8 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19838,14 +18500,8 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19879,14 +18535,8 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19920,14 +18570,8 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19961,14 +18605,8 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20002,14 +18640,8 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20043,14 +18675,8 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20084,14 +18710,8 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20125,14 +18745,8 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20166,14 +18780,8 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20207,14 +18815,8 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20248,14 +18850,8 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20289,14 +18885,8 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20330,14 +18920,8 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20371,14 +18955,8 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20412,14 +18990,8 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20453,14 +19025,8 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20494,14 +19060,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20535,14 +19095,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20576,14 +19130,8 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20617,14 +19165,8 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20658,14 +19200,8 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20699,14 +19235,8 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20740,14 +19270,8 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20781,14 +19305,8 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20822,14 +19340,8 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20863,14 +19375,8 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20904,14 +19410,8 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20945,14 +19445,8 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20986,14 +19480,8 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21027,14 +19515,8 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21068,14 +19550,8 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21109,14 +19585,8 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21150,14 +19620,8 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +19655,8 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21232,14 +19690,8 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21273,14 +19725,8 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21314,14 +19760,8 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21355,14 +19795,8 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21396,14 +19830,8 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21437,14 +19865,8 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21478,14 +19900,8 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21519,14 +19935,8 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21560,14 +19970,8 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21601,14 +20005,8 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21642,14 +20040,8 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21683,14 +20075,8 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21724,14 +20110,8 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21765,14 +20145,8 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21806,14 +20180,8 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21847,14 +20215,8 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21888,14 +20250,8 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21929,14 +20285,8 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21970,14 +20320,8 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -22011,14 +20355,8 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -22052,14 +20390,8 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22093,14 +20425,8 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22134,14 +20460,8 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22175,14 +20495,8 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22216,14 +20530,8 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22257,14 +20565,8 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22298,14 +20600,8 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22339,14 +20635,8 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22380,14 +20670,8 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22421,14 +20705,8 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22462,14 +20740,8 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22503,14 +20775,8 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22544,14 +20810,8 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22585,14 +20845,8 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22626,14 +20880,8 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22667,14 +20915,8 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22708,14 +20950,8 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22749,14 +20985,8 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22790,14 +21020,8 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22831,14 +21055,8 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22872,14 +21090,8 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22913,14 +21125,8 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22954,14 +21160,8 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22995,14 +21195,8 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -23036,14 +21230,8 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -23077,14 +21265,8 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -23118,14 +21300,8 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -23159,14 +21335,8 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -23200,14 +21370,8 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23241,14 +21405,8 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23282,14 +21440,8 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23323,14 +21475,8 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23364,14 +21510,8 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23405,14 +21545,8 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23446,14 +21580,8 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23487,14 +21615,8 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23528,14 +21650,8 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23569,14 +21685,8 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23610,14 +21720,8 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23651,14 +21755,8 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23692,14 +21790,8 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23733,14 +21825,8 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23774,14 +21860,8 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23815,14 +21895,8 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23856,14 +21930,8 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23897,14 +21965,8 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23938,14 +22000,8 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23979,14 +22035,8 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -24020,14 +22070,8 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -24061,14 +22105,8 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -24102,14 +22140,8 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -24143,14 +22175,8 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -24184,14 +22210,8 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -24225,14 +22245,8 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -24266,14 +22280,8 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -24307,14 +22315,8 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -24348,14 +22350,8 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -24389,14 +22385,8 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24430,14 +22420,8 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24471,14 +22455,8 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24512,14 +22490,8 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24553,14 +22525,8 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24594,14 +22560,8 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24635,14 +22595,8 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24676,14 +22630,8 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24717,14 +22665,8 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24758,14 +22700,8 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24799,14 +22735,8 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24840,14 +22770,8 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest PLY.xlsx
+++ b/BackTest/2019-10-19 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1662223.134</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1662223.134</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1377284.8675</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1413404.0959</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1413404.0959</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1413404.0959</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1413404.0959</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1414324.3212</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1384265.3212</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1384265.3212</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1386149.5926</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1167085.4379</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1079002.0594</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1455252.7368</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1455252.7368</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1455252.7368</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1430089.7368</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1430089.7368</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1430089.7368</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1430089.7368</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1633048.5267</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1238778.7931</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1238778.7931</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-843330.7547999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-843330.7547999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-843330.7547999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-843330.7547999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-980248.7047999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-980248.7047999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-980248.7047999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-980248.7047999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-980248.7047999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-980248.7047999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1118285.3122</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-985489.5748000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-985489.5748000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1326893.8241</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1326893.8241</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1326893.8241</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1326893.8241</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1326893.8241</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1264273.5608</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1540157.2714</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1540157.2714</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1445708.7296</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1534813.7296</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1534813.7296</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1534813.7296</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1371261.7933</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1371261.7933</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1191542.2739</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1191542.2739</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1392674.5781</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1202196.1641</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1499525.2519</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1499525.2519</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1499525.2519</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1779202.2556</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1779202.2556</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1531231.6874</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1531231.6874</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1736429.835</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1588174.4998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1750654.1669</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1485368.4431</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1590029.9518</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1454836.3894</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1540278.2777</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1540278.2777</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1540278.2777</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1599312.3703</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1486070.9289</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1486070.9289</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1486070.9289</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1368746.4315</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1161841.7571</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1161841.7571</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1527821.3056</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1527821.3056</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1435321.2922</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1413769.8195</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1564782.7049</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1817944.5709</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-2524372.908</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2524372.908</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2347818.933000001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2319763.099900001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2107552.754200001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2599764.325600001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2809368.325600001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2288283.214200001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22165,17 +22165,11 @@
         <v>-4077574.45097908</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22208,11 +22202,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22241,17 +22231,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22284,11 +22268,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22317,17 +22297,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22360,11 +22334,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22393,17 +22363,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22432,17 +22396,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22471,17 +22429,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22510,17 +22462,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22549,17 +22495,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22593,12 +22533,10 @@
       <c r="I671" t="n">
         <v>4.74</v>
       </c>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22627,15 +22565,15 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J672" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>4.74</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L672" t="n">
@@ -22671,10 +22609,12 @@
       <c r="I673" t="n">
         <v>4.74</v>
       </c>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>4.74</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L673" t="n">
@@ -22710,12 +22650,10 @@
       <c r="I674" t="n">
         <v>4.74</v>
       </c>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22749,10 +22687,12 @@
       <c r="I675" t="n">
         <v>4.74</v>
       </c>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>4.74</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -22783,15 +22723,15 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>4.74</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -22822,17 +22762,11 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22861,17 +22795,11 @@
         <v>-4465258.76827908</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22905,12 +22833,10 @@
       <c r="I679" t="n">
         <v>4.71</v>
       </c>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22944,10 +22870,12 @@
       <c r="I680" t="n">
         <v>4.72</v>
       </c>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>4.71</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L680" t="n">
@@ -22983,10 +22911,12 @@
       <c r="I681" t="n">
         <v>4.72</v>
       </c>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>4.71</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L681" t="n">
@@ -23022,12 +22952,10 @@
       <c r="I682" t="n">
         <v>4.72</v>
       </c>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23061,10 +22989,12 @@
       <c r="I683" t="n">
         <v>4.72</v>
       </c>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>4.72</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
@@ -23100,10 +23030,12 @@
       <c r="I684" t="n">
         <v>4.72</v>
       </c>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>4.72</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L684" t="n">
@@ -23139,12 +23071,10 @@
       <c r="I685" t="n">
         <v>4.72</v>
       </c>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23173,13 +23103,17 @@
         <v>-3426917.143079081</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J686" t="n">
+        <v>4.72</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L686" t="n">
@@ -23213,10 +23147,12 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>4.72</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L687" t="n">
@@ -23251,11 +23187,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23288,11 +23220,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23325,11 +23253,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23362,11 +23286,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23399,11 +23319,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23436,11 +23352,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23473,11 +23385,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23510,11 +23418,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23547,11 +23451,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23484,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23621,11 +23517,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23658,11 +23550,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23695,11 +23583,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23732,11 +23616,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23769,11 +23649,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23806,11 +23682,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23843,11 +23715,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23880,11 +23748,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23917,11 +23781,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23954,11 +23814,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23991,17 +23847,13 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
       <c r="M708" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PLY.xlsx
+++ b/BackTest/2019-10-19 BackTest PLY.xlsx
@@ -12199,7 +12199,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-2233391.0845</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3187427.978700001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2347818.933000001</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2319763.099900001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2107552.754200001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2599764.325600001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2809368.325600001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2288283.214200001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18139,10 +18139,14 @@
         <v>-3715664.412579081</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J538" t="n">
+        <v>4.74</v>
+      </c>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
@@ -18172,11 +18176,19 @@
         <v>-3481263.819479081</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J539" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18217,19 @@
         <v>-4048085.560979081</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J540" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18241,8 +18261,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18274,8 +18300,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18307,8 +18339,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18340,8 +18378,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18373,8 +18417,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18453,19 @@
         <v>-4469830.98477908</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J546" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18494,19 @@
         <v>-4450347.279079081</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J547" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18535,19 @@
         <v>-4450347.279079081</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J548" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18505,8 +18579,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18615,19 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J550" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18656,19 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J551" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18697,19 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J552" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +18738,19 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J553" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +18779,19 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J554" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18703,8 +18823,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +18859,19 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J556" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +18900,19 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J557" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +18941,19 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J558" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18982,19 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J559" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +19023,19 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J560" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18901,8 +19067,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18934,8 +19106,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +19142,19 @@
         <v>-3678045.68857908</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J563" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +19183,19 @@
         <v>-3678045.68857908</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J564" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +19224,19 @@
         <v>-3678045.68857908</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J565" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +19265,19 @@
         <v>-3669313.61317908</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J566" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19099,8 +19309,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19132,8 +19348,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19165,8 +19387,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19423,19 @@
         <v>-3655078.12057908</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J570" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +19467,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19264,8 +19506,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19297,8 +19545,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19581,19 @@
         <v>-3334030.53847908</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J574" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19363,8 +19625,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19661,19 @@
         <v>-3177216.674479081</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J576" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19429,8 +19705,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +19741,19 @@
         <v>-3301184.798279081</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J578" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +19782,19 @@
         <v>-3173267.052079081</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J579" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +19823,19 @@
         <v>-3173267.052079081</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J580" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +19864,19 @@
         <v>-3469915.250479081</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J581" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19905,19 @@
         <v>-3348224.746079081</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J582" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19946,19 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J583" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19987,19 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J584" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +20028,19 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J585" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +20069,19 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J586" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +20110,19 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J587" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +20151,19 @@
         <v>-3204878.382979081</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J588" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +20192,19 @@
         <v>-3734572.688179081</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J589" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +20233,19 @@
         <v>-3401863.035579081</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J590" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20274,19 @@
         <v>-4307858.57417908</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J591" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20318,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20354,19 @@
         <v>-4050625.63937908</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J593" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20395,19 @@
         <v>-4050625.63937908</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J594" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20436,19 @@
         <v>-4324792.16567908</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J595" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20477,19 @@
         <v>-4324792.16567908</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J596" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20518,19 @@
         <v>-3920574.55327908</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J597" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +20562,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20598,19 @@
         <v>-4382530.985179081</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J599" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20639,19 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J600" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20680,17 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20719,17 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20758,17 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20797,17 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20836,17 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20875,17 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +20917,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +20956,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +20995,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +21034,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +21070,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J611" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +21111,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J612" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +21152,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J613" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +21193,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J614" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +21237,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20716,8 +21276,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +21315,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21351,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J618" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21392,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J619" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21436,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21475,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21511,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J622" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21552,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J623" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21593,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J624" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21634,19 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J625" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21046,8 +21678,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21714,19 @@
         <v>-3900828.89347908</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J627" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21112,8 +21758,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21145,8 +21797,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21178,8 +21836,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21211,8 +21875,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21244,8 +21914,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +21953,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21992,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +22031,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +22067,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J636" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +22108,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J637" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +22149,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J638" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +22190,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J639" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +22231,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J640" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +22275,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21574,8 +22314,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +22353,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +22392,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +22428,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J645" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +22469,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J646" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +22510,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J647" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +22551,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J648" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +22592,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J649" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +22633,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J650" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +22674,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J651" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +22715,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J652" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22756,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J653" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22797,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J654" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22838,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J655" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22879,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J656" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22920,19 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J657" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +22961,19 @@
         <v>-4442022.02987908</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J658" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +23002,19 @@
         <v>-4442022.02987908</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J659" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +23043,19 @@
         <v>-4077574.45097908</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J660" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +23084,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J661" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +23125,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J662" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +23166,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J663" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +23207,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J664" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +23248,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J665" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +23289,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J666" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +23330,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J667" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +23371,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J668" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +23412,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J669" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +23453,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J670" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22536,7 +23502,11 @@
       <c r="J671" t="n">
         <v>4.74</v>
       </c>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,15 +23535,17 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>4.74</v>
+      </c>
       <c r="J672" t="n">
         <v>4.74</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L672" t="n">
@@ -22614,7 +23586,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L673" t="n">
@@ -22653,7 +23625,11 @@
       <c r="J674" t="n">
         <v>4.74</v>
       </c>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22692,7 +23668,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -22723,15 +23699,17 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>4.74</v>
+      </c>
       <c r="J676" t="n">
         <v>4.74</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -22762,11 +23740,19 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J677" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22795,11 +23781,19 @@
         <v>-4465258.76827908</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J678" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22834,9 +23828,13 @@
         <v>4.71</v>
       </c>
       <c r="J679" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K679" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22871,11 +23869,11 @@
         <v>4.72</v>
       </c>
       <c r="J680" t="n">
-        <v>4.71</v>
+        <v>4.74</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L680" t="n">
@@ -22912,11 +23910,11 @@
         <v>4.72</v>
       </c>
       <c r="J681" t="n">
-        <v>4.71</v>
+        <v>4.74</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L681" t="n">
@@ -22953,9 +23951,13 @@
         <v>4.72</v>
       </c>
       <c r="J682" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K682" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +23992,11 @@
         <v>4.72</v>
       </c>
       <c r="J683" t="n">
-        <v>4.72</v>
+        <v>4.74</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
@@ -23031,11 +24033,11 @@
         <v>4.72</v>
       </c>
       <c r="J684" t="n">
-        <v>4.72</v>
+        <v>4.74</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L684" t="n">
@@ -23072,9 +24074,13 @@
         <v>4.72</v>
       </c>
       <c r="J685" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K685" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23103,17 +24109,15 @@
         <v>-3426917.143079081</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>4.72</v>
+        <v>4.74</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L686" t="n">
@@ -23148,11 +24152,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>4.72</v>
+        <v>4.74</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L687" t="n">
@@ -23183,11 +24187,19 @@
         <v>-3426917.143079081</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J688" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23219,8 +24231,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23252,8 +24270,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23285,8 +24309,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23318,8 +24348,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23351,8 +24387,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23384,8 +24426,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23417,8 +24465,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23450,8 +24504,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23483,8 +24543,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23516,8 +24582,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23549,8 +24621,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23582,8 +24660,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23615,8 +24699,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23648,8 +24738,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23681,8 +24777,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23714,8 +24816,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23747,8 +24855,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23780,8 +24894,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23810,13 +24930,19 @@
         <v>-3264023.39237908</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L707" t="n">
-        <v>1</v>
+        <v>1.013987341772152</v>
       </c>
       <c r="M707" t="inlineStr"/>
     </row>
